--- a/electricity-and-magnetism/3-4-1/data/3-4-1.xlsx
+++ b/electricity-and-magnetism/3-4-1/data/3-4-1.xlsx
@@ -68,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -155,6 +155,28 @@
       <left style="thin">
         <color theme="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -171,6 +193,21 @@
         <color theme="1"/>
       </left>
       <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
         <color theme="1"/>
       </right>
       <top style="thin">
@@ -235,9 +272,6 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,9 +284,6 @@
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,22 +296,26 @@
     <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -790,7 +825,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B14" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -817,34 +852,34 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.29999999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>99</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.59999999999999998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>185.30000000000001</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.91000000000000003</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>288.60000000000002</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1.2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>372.5</v>
       </c>
     </row>
@@ -852,7 +887,7 @@
       <c r="C7" s="1">
         <v>1.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>463</v>
       </c>
     </row>
@@ -889,56 +924,56 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="9">
+      <c r="C19" s="3"/>
+      <c r="D19" s="7">
         <v>0.29999999999999999</v>
       </c>
       <c r="E19" s="12">
@@ -955,7 +990,7 @@
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>0.59999999999999998</v>
       </c>
       <c r="E20" s="12">
@@ -972,10 +1007,10 @@
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>0.91000000000000003</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="12">
@@ -992,7 +1027,7 @@
       <c r="D22" s="14">
         <v>1.2</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="12">
@@ -1006,10 +1041,10 @@
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>1.5</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="12">
@@ -1023,7 +1058,7 @@
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>1.8100000000000001</v>
       </c>
       <c r="E24" s="12">
@@ -1040,7 +1075,7 @@
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>2.2000000000000002</v>
       </c>
       <c r="E25" s="12">
@@ -1057,7 +1092,7 @@
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>2.6000000000000001</v>
       </c>
       <c r="E26" s="12">
@@ -1090,11 +1125,11 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/electricity-and-magnetism/3-4-1/data/3-4-1.xlsx
+++ b/electricity-and-magnetism/3-4-1/data/3-4-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Imax = 3.02 A (V = 4.02 V)</t>
   </si>
@@ -47,11 +47,21 @@
   <si>
     <t>-0.008</t>
   </si>
+  <si>
+    <t xml:space="preserve">B^2, T^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\Delta$m, mg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="160" formatCode="0.000"/>
+    <numFmt numFmtId="161" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -267,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +328,12 @@
     <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,7 +841,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1123,9 +1139,538 @@
       </c>
       <c r="H27" s="17"/>
     </row>
+    <row r="37" ht="14.25">
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="D39" s="1">
+        <f>D3*D3*0.000001</f>
+        <v>0.0098009999999999989</v>
+      </c>
+      <c r="E39">
+        <f>E19*1000</f>
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <f>F19*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>G19*1000</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="D40" s="1">
+        <f>D4*D4*0.000001</f>
+        <v>0.03433609</v>
+      </c>
+      <c r="E40">
+        <f>E20*1000</f>
+        <v>-2</v>
+      </c>
+      <c r="F40">
+        <f>F20*1000</f>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f>G20*1000</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="D41" s="1">
+        <f>D5*D5*0.000001</f>
+        <v>0.083289959999999996</v>
+      </c>
+      <c r="E41">
+        <f>E21*1000</f>
+        <v>-4</v>
+      </c>
+      <c r="F41">
+        <f>F21*1000</f>
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <f>G21*1000</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="D42" s="1">
+        <f>D6*D6*0.000001</f>
+        <v>0.13875625</v>
+      </c>
+      <c r="E42">
+        <f>E22*1000</f>
+        <v>-6</v>
+      </c>
+      <c r="F42">
+        <f>F22*1000</f>
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <f>G22*1000</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="D43" s="1">
+        <f>D7*D7*0.000001</f>
+        <v>0.214369</v>
+      </c>
+      <c r="E43">
+        <f>E23*1000</f>
+        <v>-8</v>
+      </c>
+      <c r="F43">
+        <f>F23*1000</f>
+        <v>14</v>
+      </c>
+      <c r="G43">
+        <f>G23*1000</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="D44" s="1">
+        <f>D8*D8*0.000001</f>
+        <v>0.29702499999999998</v>
+      </c>
+      <c r="E44">
+        <f>E24*1000</f>
+        <v>-11</v>
+      </c>
+      <c r="F44">
+        <f>F24*1000</f>
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <f>G24*1000</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="D45" s="1">
+        <f>D9*D9*0.000001</f>
+        <v>0.42732369000000003</v>
+      </c>
+      <c r="E45">
+        <f>E25*1000</f>
+        <v>-15</v>
+      </c>
+      <c r="F45">
+        <f>F25*1000</f>
+        <v>28</v>
+      </c>
+      <c r="G45">
+        <f>G25*1000</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="D46" s="1">
+        <f>D10*D10*0.000001</f>
+        <v>0.54051904000000006</v>
+      </c>
+      <c r="E46">
+        <f>E26*1000</f>
+        <v>-19</v>
+      </c>
+      <c r="F46">
+        <f>F26*1000</f>
+        <v>36</v>
+      </c>
+      <c r="G46">
+        <f>G26*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="D47" s="1">
+        <f>D11*D11*0.000001</f>
+        <v>0.65108760999999993</v>
+      </c>
+      <c r="E47">
+        <f>E27*1000</f>
+        <v>-24</v>
+      </c>
+      <c r="F47">
+        <f>F27*1000</f>
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <f>G27*1000</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="D51" s="19">
+        <f>D39</f>
+        <v>0.0098009999999999989</v>
+      </c>
+      <c r="E51">
+        <f>E39*9.8</f>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="F51">
+        <f>F39*9.8</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>G39*9.8</f>
+        <v>68.600000000000009</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="D52" s="20">
+        <f>D40</f>
+        <v>0.03433609</v>
+      </c>
+      <c r="E52">
+        <f>E40*9.8</f>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="F52">
+        <f>F40*9.8</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G52">
+        <f>G40*9.8</f>
+        <v>166.60000000000002</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="D53" s="20">
+        <f>D41</f>
+        <v>0.083289959999999996</v>
+      </c>
+      <c r="E53">
+        <f>E41*9.8</f>
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="F53">
+        <f>F41*9.8</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G53">
+        <f>G41*9.8</f>
+        <v>245.00000000000003</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="D54" s="20">
+        <f>D42</f>
+        <v>0.13875625</v>
+      </c>
+      <c r="E54">
+        <f>E42*9.8</f>
+        <v>-58.800000000000004</v>
+      </c>
+      <c r="F54">
+        <f>F42*9.8</f>
+        <v>88.200000000000003</v>
+      </c>
+      <c r="G54">
+        <f>G42*9.8</f>
+        <v>284.20000000000005</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="D55" s="21">
+        <f>D43</f>
+        <v>0.214369</v>
+      </c>
+      <c r="E55">
+        <f>E43*9.8</f>
+        <v>-78.400000000000006</v>
+      </c>
+      <c r="F55">
+        <f>F43*9.8</f>
+        <v>137.20000000000002</v>
+      </c>
+      <c r="G55">
+        <f>G43*9.8</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="D56" s="21">
+        <f>D44</f>
+        <v>0.29702499999999998</v>
+      </c>
+      <c r="E56">
+        <f>E44*9.8</f>
+        <v>-107.80000000000001</v>
+      </c>
+      <c r="F56">
+        <f>F44*9.8</f>
+        <v>186.20000000000002</v>
+      </c>
+      <c r="G56">
+        <f>G44*9.8</f>
+        <v>264.60000000000002</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="D57" s="20">
+        <f>D45</f>
+        <v>0.42732369000000003</v>
+      </c>
+      <c r="E57">
+        <f>E45*9.8</f>
+        <v>-147</v>
+      </c>
+      <c r="F57">
+        <f>F45*9.8</f>
+        <v>274.40000000000003</v>
+      </c>
+      <c r="G57">
+        <f>G45*9.8</f>
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="D58" s="20">
+        <f>D46</f>
+        <v>0.54051904000000006</v>
+      </c>
+      <c r="E58">
+        <f>E46*9.8</f>
+        <v>-186.20000000000002</v>
+      </c>
+      <c r="F58">
+        <f>F46*9.8</f>
+        <v>352.80000000000001</v>
+      </c>
+      <c r="G58">
+        <f>G46*9.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="D59" s="20">
+        <f>D47</f>
+        <v>0.65108760999999993</v>
+      </c>
+      <c r="E59">
+        <f>E47*9.8</f>
+        <v>-235.20000000000002</v>
+      </c>
+      <c r="F59">
+        <f>F47*9.8</f>
+        <v>450.80000000000001</v>
+      </c>
+      <c r="G59">
+        <f>G47*9.8</f>
+        <v>-205.80000000000001</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="D64" s="19">
+        <f>D51</f>
+        <v>0.0098009999999999989</v>
+      </c>
+      <c r="E64">
+        <f>F51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="D65" s="19">
+        <f>D52</f>
+        <v>0.03433609</v>
+      </c>
+      <c r="E65">
+        <f>F52</f>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="D66" s="19">
+        <f>D53</f>
+        <v>0.083289959999999996</v>
+      </c>
+      <c r="E66">
+        <f>F53</f>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="D67" s="19">
+        <f>D54</f>
+        <v>0.13875625</v>
+      </c>
+      <c r="E67">
+        <f>F54</f>
+        <v>88.200000000000003</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="D68" s="19">
+        <f>D55</f>
+        <v>0.214369</v>
+      </c>
+      <c r="E68">
+        <f>F55</f>
+        <v>137.20000000000002</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="D69" s="19">
+        <f>D56</f>
+        <v>0.29702499999999998</v>
+      </c>
+      <c r="E69">
+        <f>F56</f>
+        <v>186.20000000000002</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="D70" s="19">
+        <f>D57</f>
+        <v>0.42732369000000003</v>
+      </c>
+      <c r="E70">
+        <f>F57</f>
+        <v>274.40000000000003</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="D71" s="19">
+        <f>D58</f>
+        <v>0.54051904000000006</v>
+      </c>
+      <c r="E71">
+        <f>F58</f>
+        <v>352.80000000000001</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="D72" s="19">
+        <f>D59</f>
+        <v>0.65108760999999993</v>
+      </c>
+      <c r="E72">
+        <f>F59</f>
+        <v>450.80000000000001</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="D75" s="19">
+        <f>D64</f>
+        <v>0.0098009999999999989</v>
+      </c>
+      <c r="E75">
+        <f>G51</f>
+        <v>68.600000000000009</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="D76" s="19">
+        <f>D65</f>
+        <v>0.03433609</v>
+      </c>
+      <c r="E76">
+        <f>G52</f>
+        <v>166.60000000000002</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="D77" s="19">
+        <f>D66</f>
+        <v>0.083289959999999996</v>
+      </c>
+      <c r="E77">
+        <f>G53</f>
+        <v>245.00000000000003</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="D78" s="19">
+        <f>D67</f>
+        <v>0.13875625</v>
+      </c>
+      <c r="E78">
+        <f>G54</f>
+        <v>284.20000000000005</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="D79" s="19">
+        <f>D68</f>
+        <v>0.214369</v>
+      </c>
+      <c r="E79">
+        <f>G55</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="D80" s="19">
+        <f>D69</f>
+        <v>0.29702499999999998</v>
+      </c>
+      <c r="E80">
+        <f>G56</f>
+        <v>264.60000000000002</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="D81" s="19">
+        <f>D70</f>
+        <v>0.42732369000000003</v>
+      </c>
+      <c r="E81">
+        <f>G57</f>
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="D82" s="19">
+        <f>D71</f>
+        <v>0.54051904000000006</v>
+      </c>
+      <c r="E82">
+        <f>G58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="D83" s="19">
+        <f>D72</f>
+        <v>0.65108760999999993</v>
+      </c>
+      <c r="E83">
+        <f>G59</f>
+        <v>-205.80000000000001</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="D84" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E38:G38"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
